--- a/Excels/Datable/DataTable.xlsx
+++ b/Excels/Datable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="4"/>
+    <workbookView windowHeight="17655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -1414,7 +1414,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1505,7 +1505,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>UIGroup!$D$5:$D$1048576</formula1>
+      <formula1>UIGroup!$D$5:$D$1048575</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,13 +1517,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
@@ -1581,17 +1581,6 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1607,10 +1596,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="6" width="43.25" customWidth="1"/>
+    <col min="7" max="16384" width="27.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/Excels/Datable/DataTable.xlsx
+++ b/Excels/Datable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="5"/>
+    <workbookView windowHeight="17655" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="UIForm" sheetId="5" r:id="rId5"/>
     <sheet name="UIGroup" sheetId="6" r:id="rId6"/>
     <sheet name="UISound" sheetId="7" r:id="rId7"/>
+    <sheet name="NetworkChannel" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -168,6 +169,36 @@
   </si>
   <si>
     <t>界面声音编号</t>
+  </si>
+  <si>
+    <t>网络频道配置表</t>
+  </si>
+  <si>
+    <t>ChannelName</t>
+  </si>
+  <si>
+    <t>IPAddress</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>网络频道编号</t>
+  </si>
+  <si>
+    <t>网络频道名称</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>端口号</t>
+  </si>
+  <si>
+    <t>Geek</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1550,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
@@ -1596,7 +1627,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1672,4 +1703,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="61.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>8899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>